--- a/Project Outputs for RFD900X Holder/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs for RFD900X Holder/BOM/Bill of Materials-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beljj\Desktop\проекты\GitHub\RFD900X-HOLDER\Project Outputs for RFD900X Holder\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RFD900X-HOLDER\Project Outputs for RFD900X Holder\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF6EC5B-3553-4610-B378-F61629F4C736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92ED24A2-8808-4D21-9FBF-4C3D4EC1E1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{62BD892B-17D6-43E7-A8E3-29825DDD942D}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{F66F9F12-705F-48C7-90D6-69D10669613D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-BOM'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
   <si>
     <t>Designator</t>
   </si>
@@ -793,7 +794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56B1034-DC7A-4835-9629-85123F6DB71A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C613AF-56BC-4D16-82D3-FF0D7F76F55C}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1482,7 +1483,9 @@
       <c r="G20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2" t="s">
         <v>111</v>
@@ -1514,7 +1517,9 @@
       <c r="G21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +1549,9 @@
       <c r="G22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2" t="s">
         <v>111</v>
